--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -5,20 +5,21 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ch10va10.komax.org\v001\users\CH1011686\Documents\Projekt\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ch10va10.komax.org\v001\users\CH1011686\Documents\Projekt-BLJ\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D276F3C0-130A-4E5E-9647-562E8A2A3502}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B91A84-860D-4A9B-B40E-7485D010F017}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
-    <sheet name="Ist Arbeitszeit - Übersicht" sheetId="7" r:id="rId2"/>
+    <sheet name="Diagramm1" sheetId="8" r:id="rId1"/>
+    <sheet name="Zeitplanung" sheetId="1" r:id="rId2"/>
+    <sheet name="Ist Arbeitszeit - Übersicht" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$O$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$T$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Ist Arbeitszeit - Übersicht'!$A$1:$O$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Zeitplanung!$A$1:$T$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
   <si>
     <t>Nr.</t>
   </si>
@@ -218,9 +219,6 @@
     <t>6.12.</t>
   </si>
   <si>
-    <t>10.1.</t>
-  </si>
-  <si>
     <t>Projektende</t>
   </si>
   <si>
@@ -230,22 +228,28 @@
     <t>-</t>
   </si>
   <si>
-    <t>Überstunden anzeigen</t>
+    <t>F.REQ.001</t>
   </si>
   <si>
-    <t>Daten von Zeitrapport auf Datenbank</t>
+    <t>F.REQ.002</t>
   </si>
   <si>
-    <t>Login Funktion</t>
+    <t>F.REQ.003</t>
   </si>
   <si>
-    <t>Webseite über BLJ</t>
+    <t>F.REQ.004</t>
   </si>
   <si>
-    <t>Arbeitzeit Rapport anzeigen</t>
+    <t>F.REQ.005</t>
   </si>
   <si>
-    <t>Informationen über BLJ</t>
+    <t>F.REQ.006</t>
+  </si>
+  <si>
+    <t>F.REQ.007</t>
+  </si>
+  <si>
+    <t>F.REQ.008</t>
   </si>
 </sst>
 </file>
@@ -1470,6 +1474,272 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Zeitplanung!$F$21:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB8C-494C-B48C-A657A35CCED4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="406054152"/>
+        <c:axId val="543187376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="406054152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543187376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543187376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406054152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1531,7 +1801,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
@@ -1718,7 +1988,594 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5CB21809-A2D6-4DFF-963A-393638878474}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6231610"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D5F589-6FF3-4F23-A7FA-6A0487CCEDC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2113,7 +2970,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2783,7 +3640,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="48">
@@ -3010,17 +3867,17 @@
         <v>104</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="83"/>
       <c r="E13" s="50">
         <v>1</v>
       </c>
-      <c r="F13" s="88" t="s">
-        <v>47</v>
+      <c r="F13" s="88">
+        <v>11.1</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="60"/>
@@ -3060,8 +3917,8 @@
       <c r="AP13" s="59"/>
       <c r="AQ13" s="60"/>
       <c r="AR13" s="55"/>
-      <c r="AS13" s="87"/>
-      <c r="AT13" s="55"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="87"/>
       <c r="AU13" s="66"/>
       <c r="AV13" s="67"/>
       <c r="AW13" s="59"/>
@@ -3381,7 +4238,7 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
@@ -3453,9 +4310,7 @@
       <c r="B19" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="49">
-        <v>8</v>
-      </c>
+      <c r="C19" s="49"/>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
         <v>0</v>
@@ -3472,8 +4327,8 @@
       <c r="N19" s="53"/>
       <c r="O19" s="54"/>
       <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
       <c r="S19" s="57"/>
       <c r="T19" s="58"/>
       <c r="U19" s="53"/>
@@ -3524,11 +4379,9 @@
         <v>302</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="49">
-        <v>8</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C20" s="49"/>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
         <v>0</v>
@@ -3545,8 +4398,8 @@
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
       <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
       <c r="U20" s="59"/>
@@ -3597,20 +4450,16 @@
         <v>303</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="49">
-        <v>8</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C21" s="49"/>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="50">
-        <v>1</v>
-      </c>
+      <c r="E21" s="50"/>
       <c r="F21" s="52">
-        <v>19.12</v>
+        <v>14.12</v>
       </c>
       <c r="G21" s="59"/>
       <c r="H21" s="60"/>
@@ -3621,14 +4470,14 @@
       <c r="M21" s="58"/>
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
-      <c r="P21" s="55"/>
+      <c r="P21" s="63"/>
       <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
+      <c r="R21" s="87"/>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
       <c r="U21" s="59"/>
       <c r="V21" s="60"/>
-      <c r="W21" s="87"/>
+      <c r="W21" s="55"/>
       <c r="X21" s="55"/>
       <c r="Y21" s="55"/>
       <c r="Z21" s="57"/>
@@ -3674,18 +4523,14 @@
         <v>304</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="49">
-        <v>2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C22" s="49"/>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="50">
-        <v>1</v>
-      </c>
+      <c r="E22" s="50"/>
       <c r="F22" s="52">
         <v>19.12</v>
       </c>
@@ -3751,20 +4596,16 @@
         <v>305</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="49">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C23" s="49"/>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="50">
-        <v>1</v>
-      </c>
+      <c r="E23" s="50"/>
       <c r="F23" s="52">
-        <v>19.12</v>
+        <v>14.12</v>
       </c>
       <c r="G23" s="59"/>
       <c r="H23" s="60"/>
@@ -3775,14 +4616,14 @@
       <c r="M23" s="58"/>
       <c r="N23" s="59"/>
       <c r="O23" s="60"/>
-      <c r="P23" s="55"/>
+      <c r="P23" s="63"/>
       <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
+      <c r="R23" s="87"/>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="87"/>
+      <c r="W23" s="55"/>
       <c r="X23" s="55"/>
       <c r="Y23" s="55"/>
       <c r="Z23" s="57"/>
@@ -3828,18 +4669,14 @@
         <v>306</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="49">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C24" s="49"/>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="50">
-        <v>1</v>
-      </c>
+      <c r="E24" s="50"/>
       <c r="F24" s="52">
         <v>19.12</v>
       </c>
@@ -3905,20 +4742,16 @@
         <v>307</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="49">
-        <v>8</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C25" s="49"/>
       <c r="D25" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="50">
-        <v>2</v>
-      </c>
+      <c r="E25" s="50"/>
       <c r="F25" s="52">
-        <v>20.12</v>
+        <v>21.12</v>
       </c>
       <c r="G25" s="59"/>
       <c r="H25" s="60"/>
@@ -3931,14 +4764,14 @@
       <c r="O25" s="60"/>
       <c r="P25" s="55"/>
       <c r="Q25" s="55"/>
-      <c r="R25" s="63"/>
+      <c r="R25" s="55"/>
       <c r="S25" s="57"/>
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
       <c r="W25" s="63"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="55"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="87"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
       <c r="AB25" s="59"/>
@@ -3982,19 +4815,17 @@
         <v>308</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="49">
-        <v>3</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C26" s="49"/>
       <c r="D26" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="50">
-        <v>3</v>
-      </c>
-      <c r="F26" s="51"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="52">
+        <v>9.1</v>
+      </c>
       <c r="G26" s="59"/>
       <c r="H26" s="60"/>
       <c r="I26" s="55"/>
@@ -4032,7 +4863,7 @@
       <c r="AO26" s="58"/>
       <c r="AP26" s="59"/>
       <c r="AQ26" s="60"/>
-      <c r="AR26" s="55"/>
+      <c r="AR26" s="87"/>
       <c r="AS26" s="55"/>
       <c r="AT26" s="56"/>
       <c r="AU26" s="57"/>
@@ -4056,14 +4887,18 @@
       <c r="A27" s="12">
         <v>309</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="C27" s="49"/>
       <c r="D27" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
+      <c r="F27" s="52">
+        <v>9.1</v>
+      </c>
       <c r="G27" s="59"/>
       <c r="H27" s="60"/>
       <c r="I27" s="55"/>
@@ -4082,7 +4917,7 @@
       <c r="V27" s="60"/>
       <c r="W27" s="55"/>
       <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
+      <c r="Y27" s="63"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
       <c r="AB27" s="59"/>
@@ -4101,7 +4936,7 @@
       <c r="AO27" s="58"/>
       <c r="AP27" s="59"/>
       <c r="AQ27" s="60"/>
-      <c r="AR27" s="55"/>
+      <c r="AR27" s="87"/>
       <c r="AS27" s="55"/>
       <c r="AT27" s="55"/>
       <c r="AU27" s="57"/>
@@ -4125,14 +4960,18 @@
       <c r="A28" s="12">
         <v>310</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="46" t="s">
+        <v>57</v>
+      </c>
       <c r="C28" s="49"/>
       <c r="D28" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
+      <c r="F28" s="52">
+        <v>9.1</v>
+      </c>
       <c r="G28" s="59"/>
       <c r="H28" s="60"/>
       <c r="I28" s="55"/>
@@ -4151,7 +4990,7 @@
       <c r="V28" s="60"/>
       <c r="W28" s="55"/>
       <c r="X28" s="55"/>
-      <c r="Y28" s="56"/>
+      <c r="Y28" s="63"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
       <c r="AB28" s="59"/>
@@ -4170,7 +5009,7 @@
       <c r="AO28" s="58"/>
       <c r="AP28" s="59"/>
       <c r="AQ28" s="60"/>
-      <c r="AR28" s="55"/>
+      <c r="AR28" s="87"/>
       <c r="AS28" s="55"/>
       <c r="AT28" s="56"/>
       <c r="AU28" s="57"/>
@@ -4201,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="71"/>
       <c r="H29" s="72"/>
       <c r="I29" s="55"/>
@@ -4417,9 +5256,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="50"/>
-      <c r="F32" s="52">
-        <v>9.1</v>
-      </c>
+      <c r="F32" s="52"/>
       <c r="G32" s="53"/>
       <c r="H32" s="54"/>
       <c r="I32" s="55"/>
@@ -4437,8 +5274,8 @@
       <c r="U32" s="53"/>
       <c r="V32" s="54"/>
       <c r="W32" s="55"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="63"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
       <c r="Z32" s="57"/>
       <c r="AA32" s="58"/>
       <c r="AB32" s="53"/>
@@ -4457,7 +5294,7 @@
       <c r="AO32" s="58"/>
       <c r="AP32" s="53"/>
       <c r="AQ32" s="54"/>
-      <c r="AR32" s="87"/>
+      <c r="AR32" s="63"/>
       <c r="AS32" s="56"/>
       <c r="AT32" s="56"/>
       <c r="AU32" s="57"/>
@@ -4492,9 +5329,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="50"/>
-      <c r="F33" s="52">
-        <v>9.1</v>
-      </c>
+      <c r="F33" s="52"/>
       <c r="G33" s="59"/>
       <c r="H33" s="60"/>
       <c r="I33" s="55"/>
@@ -4512,8 +5347,8 @@
       <c r="U33" s="59"/>
       <c r="V33" s="60"/>
       <c r="W33" s="55"/>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="63"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
       <c r="Z33" s="57"/>
       <c r="AA33" s="58"/>
       <c r="AB33" s="59"/>
@@ -4532,7 +5367,7 @@
       <c r="AO33" s="58"/>
       <c r="AP33" s="59"/>
       <c r="AQ33" s="60"/>
-      <c r="AR33" s="87"/>
+      <c r="AR33" s="63"/>
       <c r="AS33" s="56"/>
       <c r="AT33" s="56"/>
       <c r="AU33" s="57"/>
@@ -4567,9 +5402,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="50"/>
-      <c r="F34" s="52">
-        <v>9.1</v>
-      </c>
+      <c r="F34" s="52"/>
       <c r="G34" s="59"/>
       <c r="H34" s="60"/>
       <c r="I34" s="55"/>
@@ -4587,8 +5420,8 @@
       <c r="U34" s="59"/>
       <c r="V34" s="60"/>
       <c r="W34" s="55"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="63"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
       <c r="Z34" s="57"/>
       <c r="AA34" s="58"/>
       <c r="AB34" s="59"/>
@@ -4607,7 +5440,7 @@
       <c r="AO34" s="58"/>
       <c r="AP34" s="59"/>
       <c r="AQ34" s="60"/>
-      <c r="AR34" s="87"/>
+      <c r="AR34" s="63"/>
       <c r="AS34" s="56"/>
       <c r="AT34" s="56"/>
       <c r="AU34" s="57"/>
@@ -5109,7 +5942,7 @@
       <c r="AP41" s="59"/>
       <c r="AQ41" s="60"/>
       <c r="AR41" s="55"/>
-      <c r="AS41" s="55"/>
+      <c r="AS41" s="63"/>
       <c r="AT41" s="56"/>
       <c r="AU41" s="57"/>
       <c r="AV41" s="58"/>
@@ -5204,7 +6037,7 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
@@ -5536,7 +6369,7 @@
       <c r="B5" s="96"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ch10va10.komax.org\v001\users\CH1011686\Documents\Projekt-BLJ\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B91A84-860D-4A9B-B40E-7485D010F017}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F10763-8D75-4C09-99BF-0EDD6C42F23C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1801,13 +1801,13 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -1872,7 +1872,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2969,8 +2969,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="D15" s="83">
         <f>SUM(G15:BJ15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="89" t="s">
@@ -4031,7 +4031,7 @@
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
       <c r="I15" s="68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="87"/>
       <c r="K15" s="56"/>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
@@ -4310,7 +4310,9 @@
       <c r="B19" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="49">
+        <v>8</v>
+      </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
         <v>0</v>
@@ -4381,7 +4383,9 @@
       <c r="B20" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="49">
+        <v>8</v>
+      </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
         <v>0</v>
@@ -4452,7 +4456,9 @@
       <c r="B21" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="49">
+        <v>6</v>
+      </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4525,7 +4531,9 @@
       <c r="B22" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="49">
+        <v>1</v>
+      </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4598,7 +4606,9 @@
       <c r="B23" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="49">
+        <v>6</v>
+      </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4671,7 +4681,9 @@
       <c r="B24" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="49">
+        <v>1</v>
+      </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4744,7 +4756,9 @@
       <c r="B25" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="49">
+        <v>4</v>
+      </c>
       <c r="D25" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4817,7 +4831,9 @@
       <c r="B26" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="49">
+        <v>4</v>
+      </c>
       <c r="D26" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4890,7 +4906,9 @@
       <c r="B27" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="49">
+        <v>2</v>
+      </c>
       <c r="D27" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4963,7 +4981,9 @@
       <c r="B28" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="49">
+        <v>1</v>
+      </c>
       <c r="D28" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5538,7 +5558,7 @@
       </c>
       <c r="C36" s="41">
         <f>SUM(C37:C38)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D36" s="42">
         <f>SUM(D37:D38)</f>
@@ -5610,7 +5630,9 @@
       <c r="B37" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="49">
+        <v>12</v>
+      </c>
       <c r="D37" s="83">
         <f>SUM(G37:BJ37)</f>
         <v>0</v>
@@ -6037,11 +6059,11 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -6055,7 +6077,7 @@
       </c>
       <c r="I43" s="39">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J43" s="39">
         <f t="shared" si="3"/>
@@ -6356,7 +6378,7 @@
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
@@ -6369,7 +6391,7 @@
       <c r="B5" s="96"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
@@ -6402,7 +6424,7 @@
       <c r="B7" s="96"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D7" s="80">
         <f>Zeitplanung!D36</f>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ch10va10.komax.org\v001\users\CH1011686\Documents\Projekt-BLJ\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt-BLJ\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F10763-8D75-4C09-99BF-0EDD6C42F23C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C9553B-271D-4BF8-A26E-76F85C48C739}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>Nr.</t>
   </si>
@@ -228,28 +228,31 @@
     <t>-</t>
   </si>
   <si>
-    <t>F.REQ.001</t>
+    <t>F.REQ.001 LL Stemplugen anschauen</t>
   </si>
   <si>
-    <t>F.REQ.002</t>
+    <t>F.REQ.002 LL Überstunden anschauen</t>
   </si>
   <si>
-    <t>F.REQ.003</t>
+    <t>F.REQ.003 Coach Stemplugen anschauen</t>
   </si>
   <si>
-    <t>F.REQ.004</t>
+    <t>F.REQ.004 Coach Überstunden anschauen</t>
   </si>
   <si>
-    <t>F.REQ.005</t>
+    <t>F.REQ.005 LL Passwort ändern</t>
   </si>
   <si>
-    <t>F.REQ.006</t>
+    <t>F.REQ.006 Coach Passwort ändern</t>
   </si>
   <si>
-    <t>F.REQ.007</t>
+    <t>F.REQ.007 LL Benachrichtigung</t>
   </si>
   <si>
-    <t>F.REQ.008</t>
+    <t>F.REQ.008 Coach Benachrichtigung</t>
+  </si>
+  <si>
+    <t>F.REQ.009 Coach Benutzer anlegen</t>
   </si>
 </sst>
 </file>
@@ -1872,10 +1875,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2969,8 +2972,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3949,7 +3952,7 @@
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -4022,7 +4025,7 @@
       </c>
       <c r="D15" s="83">
         <f>SUM(G15:BJ15)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="89" t="s">
@@ -4033,7 +4036,9 @@
       <c r="I15" s="68">
         <v>3</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="87">
+        <v>2</v>
+      </c>
       <c r="K15" s="56"/>
       <c r="L15" s="57"/>
       <c r="M15" s="58"/>
@@ -4099,14 +4104,16 @@
       </c>
       <c r="D16" s="83">
         <f>SUM(G16:BJ16)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="51"/>
       <c r="G16" s="59"/>
       <c r="H16" s="60"/>
       <c r="I16" s="55"/>
-      <c r="J16" s="63"/>
+      <c r="J16" s="63">
+        <v>4</v>
+      </c>
       <c r="K16" s="63"/>
       <c r="L16" s="57"/>
       <c r="M16" s="58"/>
@@ -4242,7 +4249,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4315,14 +4322,16 @@
       </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="51"/>
       <c r="G19" s="53"/>
       <c r="H19" s="54"/>
       <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="J19" s="55">
+        <v>2</v>
+      </c>
       <c r="K19" s="63"/>
       <c r="L19" s="57"/>
       <c r="M19" s="58"/>
@@ -4388,14 +4397,16 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
       <c r="G20" s="59"/>
       <c r="H20" s="60"/>
       <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
+      <c r="J20" s="55">
+        <v>0.5</v>
+      </c>
       <c r="K20" s="63"/>
       <c r="L20" s="57"/>
       <c r="M20" s="58"/>
@@ -5053,7 +5064,9 @@
       <c r="A29" s="12">
         <v>311</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="C29" s="49"/>
       <c r="D29" s="83">
         <f t="shared" si="0"/>
@@ -6063,7 +6076,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>4</v>
+        <v>12.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -6081,7 +6094,7 @@
       </c>
       <c r="J43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K43" s="39">
         <f t="shared" si="3"/>
@@ -6378,7 +6391,7 @@
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
@@ -6395,7 +6408,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt-BLJ\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C9553B-271D-4BF8-A26E-76F85C48C739}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E8B2A-7599-4786-A5FA-915F447BC69C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="8" r:id="rId1"/>
@@ -1875,10 +1875,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2973,13 +2973,13 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="5.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="5.25" style="13" customWidth="1"/>
     <col min="5" max="6" width="5.25" style="5" customWidth="1"/>
@@ -2987,7 +2987,7 @@
     <col min="63" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" ht="25" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
@@ -3021,7 +3021,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3085,7 +3085,7 @@
       <c r="BI2" s="6"/>
       <c r="BJ2" s="6"/>
     </row>
-    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3151,7 +3151,7 @@
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
     </row>
-    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3215,7 +3215,7 @@
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6"/>
     </row>
-    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3281,7 +3281,7 @@
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
     </row>
-    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3289,7 +3289,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
       <c r="C7" s="90" t="s">
@@ -3375,7 +3375,7 @@
       <c r="BI7" s="91"/>
       <c r="BJ7" s="94"/>
     </row>
-    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>10</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="BI9" s="74"/>
       <c r="BJ9" s="78"/>
     </row>
-    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>101</v>
       </c>
@@ -3709,7 +3709,7 @@
       <c r="BI10" s="57"/>
       <c r="BJ10" s="58"/>
     </row>
-    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>102</v>
       </c>
@@ -3790,7 +3790,7 @@
       <c r="BI11" s="57"/>
       <c r="BJ11" s="58"/>
     </row>
-    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>103</v>
       </c>
@@ -3865,7 +3865,7 @@
       <c r="BI12" s="57"/>
       <c r="BJ12" s="58"/>
     </row>
-    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>104</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="BI13" s="66"/>
       <c r="BJ13" s="67"/>
     </row>
-    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>20</v>
       </c>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -4013,7 +4013,7 @@
       <c r="BI14" s="74"/>
       <c r="BJ14" s="78"/>
     </row>
-    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>201</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="BI15" s="57"/>
       <c r="BJ15" s="58"/>
     </row>
-    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>202</v>
       </c>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="D16" s="83">
         <f>SUM(G16:BJ16)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="51"/>
@@ -4114,7 +4114,9 @@
       <c r="J16" s="63">
         <v>4</v>
       </c>
-      <c r="K16" s="63"/>
+      <c r="K16" s="63">
+        <v>2</v>
+      </c>
       <c r="L16" s="57"/>
       <c r="M16" s="58"/>
       <c r="N16" s="59"/>
@@ -4167,7 +4169,7 @@
       <c r="BI16" s="57"/>
       <c r="BJ16" s="58"/>
     </row>
-    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>203</v>
       </c>
@@ -4236,7 +4238,7 @@
       <c r="BI17" s="57"/>
       <c r="BJ17" s="58"/>
     </row>
-    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30">
         <v>30</v>
       </c>
@@ -4249,7 +4251,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4310,7 +4312,7 @@
       <c r="BI18" s="74"/>
       <c r="BJ18" s="78"/>
     </row>
-    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>301</v>
       </c>
@@ -4322,7 +4324,7 @@
       </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="51"/>
@@ -4332,7 +4334,9 @@
       <c r="J19" s="55">
         <v>2</v>
       </c>
-      <c r="K19" s="63"/>
+      <c r="K19" s="63">
+        <v>4</v>
+      </c>
       <c r="L19" s="57"/>
       <c r="M19" s="58"/>
       <c r="N19" s="53"/>
@@ -4385,7 +4389,7 @@
       <c r="BI19" s="57"/>
       <c r="BJ19" s="58"/>
     </row>
-    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>302</v>
       </c>
@@ -4397,7 +4401,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
@@ -4407,7 +4411,9 @@
       <c r="J20" s="55">
         <v>0.5</v>
       </c>
-      <c r="K20" s="63"/>
+      <c r="K20" s="63">
+        <v>2</v>
+      </c>
       <c r="L20" s="57"/>
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
@@ -4460,7 +4466,7 @@
       <c r="BI20" s="57"/>
       <c r="BJ20" s="58"/>
     </row>
-    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>303</v>
       </c>
@@ -4535,7 +4541,7 @@
       <c r="BI21" s="57"/>
       <c r="BJ21" s="58"/>
     </row>
-    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>304</v>
       </c>
@@ -4610,7 +4616,7 @@
       <c r="BI22" s="57"/>
       <c r="BJ22" s="58"/>
     </row>
-    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>305</v>
       </c>
@@ -4685,7 +4691,7 @@
       <c r="BI23" s="57"/>
       <c r="BJ23" s="58"/>
     </row>
-    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>306</v>
       </c>
@@ -4760,7 +4766,7 @@
       <c r="BI24" s="57"/>
       <c r="BJ24" s="58"/>
     </row>
-    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>307</v>
       </c>
@@ -4835,7 +4841,7 @@
       <c r="BI25" s="57"/>
       <c r="BJ25" s="58"/>
     </row>
-    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>308</v>
       </c>
@@ -4910,7 +4916,7 @@
       <c r="BI26" s="57"/>
       <c r="BJ26" s="58"/>
     </row>
-    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>309</v>
       </c>
@@ -4985,7 +4991,7 @@
       <c r="BI27" s="57"/>
       <c r="BJ27" s="58"/>
     </row>
-    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>310</v>
       </c>
@@ -5060,7 +5066,7 @@
       <c r="BI28" s="57"/>
       <c r="BJ28" s="58"/>
     </row>
-    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>311</v>
       </c>
@@ -5131,7 +5137,7 @@
       <c r="BI29" s="57"/>
       <c r="BJ29" s="58"/>
     </row>
-    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>312</v>
       </c>
@@ -5200,7 +5206,7 @@
       <c r="BI30" s="57"/>
       <c r="BJ30" s="58"/>
     </row>
-    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30">
         <v>40</v>
       </c>
@@ -5274,7 +5280,7 @@
       <c r="BI31" s="74"/>
       <c r="BJ31" s="78"/>
     </row>
-    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>401</v>
       </c>
@@ -5347,7 +5353,7 @@
       <c r="BI32" s="57"/>
       <c r="BJ32" s="58"/>
     </row>
-    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>402</v>
       </c>
@@ -5420,7 +5426,7 @@
       <c r="BI33" s="57"/>
       <c r="BJ33" s="58"/>
     </row>
-    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>403</v>
       </c>
@@ -5493,7 +5499,7 @@
       <c r="BI34" s="57"/>
       <c r="BJ34" s="58"/>
     </row>
-    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>404</v>
       </c>
@@ -5562,7 +5568,7 @@
       <c r="BI35" s="57"/>
       <c r="BJ35" s="58"/>
     </row>
-    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>50</v>
       </c>
@@ -5636,7 +5642,7 @@
       <c r="BI36" s="74"/>
       <c r="BJ36" s="78"/>
     </row>
-    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>501</v>
       </c>
@@ -5709,7 +5715,7 @@
       <c r="BI37" s="57"/>
       <c r="BJ37" s="58"/>
     </row>
-    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>502</v>
       </c>
@@ -5778,7 +5784,7 @@
       <c r="BI38" s="57"/>
       <c r="BJ38" s="58"/>
     </row>
-    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>60</v>
       </c>
@@ -5852,7 +5858,7 @@
       <c r="BI39" s="74"/>
       <c r="BJ39" s="78"/>
     </row>
-    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>601</v>
       </c>
@@ -5925,7 +5931,7 @@
       <c r="BI40" s="57"/>
       <c r="BJ40" s="58"/>
     </row>
-    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>602</v>
       </c>
@@ -5996,7 +6002,7 @@
       <c r="BI41" s="57"/>
       <c r="BJ41" s="58"/>
     </row>
-    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>603</v>
       </c>
@@ -6065,7 +6071,7 @@
       <c r="BI42" s="57"/>
       <c r="BJ42" s="58"/>
     </row>
-    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="35"/>
       <c r="B43" s="36" t="s">
         <v>6</v>
@@ -6076,7 +6082,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>12.5</v>
+        <v>20.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -6098,7 +6104,7 @@
       </c>
       <c r="K43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="3"/>
@@ -6340,17 +6346,17 @@
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="97" t="s">
         <v>13</v>
       </c>
@@ -6362,7 +6368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="95" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
@@ -6379,7 +6385,7 @@
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="95" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
@@ -6391,12 +6397,12 @@
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="95" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
@@ -6408,12 +6414,12 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="95" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
@@ -6429,7 +6435,7 @@
       </c>
       <c r="F6" s="81"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="95" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
@@ -6445,7 +6451,7 @@
       </c>
       <c r="F7" s="81"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="95" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
@@ -6461,7 +6467,7 @@
       </c>
       <c r="F8" s="81"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:6" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:B7"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt-BLJ\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E8B2A-7599-4786-A5FA-915F447BC69C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6170E5-C32E-46AB-8C13-60DC4D263703}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1878,7 +1878,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2973,7 +2973,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>8.5</v>
+        <v>16.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="51"/>
@@ -4341,7 +4341,9 @@
       <c r="M19" s="58"/>
       <c r="N19" s="53"/>
       <c r="O19" s="54"/>
-      <c r="P19" s="63"/>
+      <c r="P19" s="63">
+        <v>4</v>
+      </c>
       <c r="Q19" s="55"/>
       <c r="R19" s="55"/>
       <c r="S19" s="57"/>
@@ -4401,7 +4403,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
@@ -4418,7 +4420,9 @@
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="63"/>
+      <c r="P20" s="63">
+        <v>3</v>
+      </c>
       <c r="Q20" s="55"/>
       <c r="R20" s="55"/>
       <c r="S20" s="57"/>
@@ -4478,7 +4482,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52">
@@ -4493,7 +4497,9 @@
       <c r="M21" s="58"/>
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
-      <c r="P21" s="63"/>
+      <c r="P21" s="63">
+        <v>1</v>
+      </c>
       <c r="Q21" s="63"/>
       <c r="R21" s="87"/>
       <c r="S21" s="57"/>
@@ -6082,7 +6088,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>20.5</v>
+        <v>28.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -6124,7 +6130,7 @@
       </c>
       <c r="P43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
@@ -6414,7 +6420,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>8.5</v>
+        <v>16.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt-BLJ\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6170E5-C32E-46AB-8C13-60DC4D263703}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E8D60D-09B9-4BCA-B6B3-7F206F45A4F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1878,7 +1878,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.5</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2972,8 +2972,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>16.5</v>
+        <v>32.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52">
@@ -4500,7 +4500,9 @@
       <c r="P21" s="63">
         <v>1</v>
       </c>
-      <c r="Q21" s="63"/>
+      <c r="Q21" s="63">
+        <v>8</v>
+      </c>
       <c r="R21" s="87"/>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
@@ -4634,7 +4636,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="52">
@@ -4650,7 +4652,9 @@
       <c r="N23" s="59"/>
       <c r="O23" s="60"/>
       <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
+      <c r="Q23" s="63">
+        <v>8</v>
+      </c>
       <c r="R23" s="87"/>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
@@ -6088,7 +6092,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>28.5</v>
+        <v>44.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -6134,7 +6138,7 @@
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R43" s="39">
         <f t="shared" si="3"/>
@@ -6420,7 +6424,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>16.5</v>
+        <v>32.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt-BLJ\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E8D60D-09B9-4BCA-B6B3-7F206F45A4F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E8C025-6724-41F1-A7E3-DDFCA9D76BD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="8" r:id="rId1"/>
@@ -1878,7 +1878,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.5</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2973,13 +2973,13 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="5" customWidth="1"/>
     <col min="3" max="3" width="5.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="5.25" style="13" customWidth="1"/>
     <col min="5" max="6" width="5.25" style="5" customWidth="1"/>
@@ -2987,7 +2987,7 @@
     <col min="63" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:62" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
@@ -3021,7 +3021,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3085,7 +3085,7 @@
       <c r="BI2" s="6"/>
       <c r="BJ2" s="6"/>
     </row>
-    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3151,7 +3151,7 @@
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
     </row>
-    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3215,7 +3215,7 @@
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6"/>
     </row>
-    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3281,7 +3281,7 @@
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
     </row>
-    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3289,7 +3289,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
       <c r="C7" s="90" t="s">
@@ -3375,7 +3375,7 @@
       <c r="BI7" s="91"/>
       <c r="BJ7" s="94"/>
     </row>
-    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>10</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="BI9" s="74"/>
       <c r="BJ9" s="78"/>
     </row>
-    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>101</v>
       </c>
@@ -3709,7 +3709,7 @@
       <c r="BI10" s="57"/>
       <c r="BJ10" s="58"/>
     </row>
-    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>102</v>
       </c>
@@ -3790,7 +3790,7 @@
       <c r="BI11" s="57"/>
       <c r="BJ11" s="58"/>
     </row>
-    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>103</v>
       </c>
@@ -3865,7 +3865,7 @@
       <c r="BI12" s="57"/>
       <c r="BJ12" s="58"/>
     </row>
-    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>104</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="BI13" s="66"/>
       <c r="BJ13" s="67"/>
     </row>
-    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>20</v>
       </c>
@@ -4013,7 +4013,7 @@
       <c r="BI14" s="74"/>
       <c r="BJ14" s="78"/>
     </row>
-    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>201</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="BI15" s="57"/>
       <c r="BJ15" s="58"/>
     </row>
-    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>202</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="BI16" s="57"/>
       <c r="BJ16" s="58"/>
     </row>
-    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>203</v>
       </c>
@@ -4238,7 +4238,7 @@
       <c r="BI17" s="57"/>
       <c r="BJ17" s="58"/>
     </row>
-    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>30</v>
       </c>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>32.5</v>
+        <v>24.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4312,7 +4312,7 @@
       <c r="BI18" s="74"/>
       <c r="BJ18" s="78"/>
     </row>
-    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>301</v>
       </c>
@@ -4391,7 +4391,7 @@
       <c r="BI19" s="57"/>
       <c r="BJ19" s="58"/>
     </row>
-    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>302</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="BI20" s="57"/>
       <c r="BJ20" s="58"/>
     </row>
-    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>303</v>
       </c>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52">
@@ -4501,15 +4501,15 @@
         <v>1</v>
       </c>
       <c r="Q21" s="63">
-        <v>8</v>
-      </c>
-      <c r="R21" s="87"/>
-      <c r="S21" s="57"/>
+        <v>4</v>
+      </c>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
       <c r="T21" s="58"/>
       <c r="U21" s="59"/>
       <c r="V21" s="60"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="87"/>
       <c r="Y21" s="55"/>
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
@@ -4549,7 +4549,7 @@
       <c r="BI21" s="57"/>
       <c r="BJ21" s="58"/>
     </row>
-    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>304</v>
       </c>
@@ -4577,15 +4577,15 @@
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
       <c r="P22" s="55"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="87"/>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
       <c r="AB22" s="59"/>
@@ -4624,7 +4624,7 @@
       <c r="BI22" s="57"/>
       <c r="BJ22" s="58"/>
     </row>
-    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>305</v>
       </c>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="52">
@@ -4653,15 +4653,15 @@
       <c r="O23" s="60"/>
       <c r="P23" s="63"/>
       <c r="Q23" s="63">
-        <v>8</v>
-      </c>
-      <c r="R23" s="87"/>
-      <c r="S23" s="57"/>
+        <v>4</v>
+      </c>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="87"/>
       <c r="Y23" s="55"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
@@ -4701,7 +4701,7 @@
       <c r="BI23" s="57"/>
       <c r="BJ23" s="58"/>
     </row>
-    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>306</v>
       </c>
@@ -4729,15 +4729,15 @@
       <c r="N24" s="59"/>
       <c r="O24" s="60"/>
       <c r="P24" s="55"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
       <c r="S24" s="57"/>
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="87"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
       <c r="AB24" s="59"/>
@@ -4776,7 +4776,7 @@
       <c r="BI24" s="57"/>
       <c r="BJ24" s="58"/>
     </row>
-    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>307</v>
       </c>
@@ -4810,15 +4810,15 @@
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="87"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="63"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
       <c r="AB25" s="59"/>
       <c r="AC25" s="60"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="54"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
       <c r="AF25" s="54"/>
       <c r="AG25" s="57"/>
       <c r="AH25" s="58"/>
@@ -4831,7 +4831,7 @@
       <c r="AO25" s="58"/>
       <c r="AP25" s="59"/>
       <c r="AQ25" s="60"/>
-      <c r="AR25" s="55"/>
+      <c r="AR25" s="87"/>
       <c r="AS25" s="55"/>
       <c r="AT25" s="56"/>
       <c r="AU25" s="57"/>
@@ -4851,7 +4851,7 @@
       <c r="BI25" s="57"/>
       <c r="BJ25" s="58"/>
     </row>
-    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>308</v>
       </c>
@@ -4886,14 +4886,14 @@
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
       <c r="W26" s="55"/>
-      <c r="X26" s="63"/>
+      <c r="X26" s="55"/>
       <c r="Y26" s="63"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="59"/>
       <c r="AC26" s="60"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="54"/>
+      <c r="AD26" s="63"/>
+      <c r="AE26" s="63"/>
       <c r="AF26" s="54"/>
       <c r="AG26" s="57"/>
       <c r="AH26" s="58"/>
@@ -4926,7 +4926,7 @@
       <c r="BI26" s="57"/>
       <c r="BJ26" s="58"/>
     </row>
-    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>309</v>
       </c>
@@ -4962,14 +4962,14 @@
       <c r="V27" s="60"/>
       <c r="W27" s="55"/>
       <c r="X27" s="55"/>
-      <c r="Y27" s="63"/>
+      <c r="Y27" s="55"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
       <c r="AB27" s="59"/>
       <c r="AC27" s="60"/>
       <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
       <c r="AG27" s="57"/>
       <c r="AH27" s="58"/>
       <c r="AI27" s="59"/>
@@ -5001,7 +5001,7 @@
       <c r="BI27" s="57"/>
       <c r="BJ27" s="58"/>
     </row>
-    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>310</v>
       </c>
@@ -5037,15 +5037,15 @@
       <c r="V28" s="60"/>
       <c r="W28" s="55"/>
       <c r="X28" s="55"/>
-      <c r="Y28" s="63"/>
+      <c r="Y28" s="55"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
       <c r="AB28" s="59"/>
       <c r="AC28" s="60"/>
       <c r="AD28" s="54"/>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="54"/>
-      <c r="AG28" s="57"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
       <c r="AH28" s="58"/>
       <c r="AI28" s="59"/>
       <c r="AJ28" s="60"/>
@@ -5076,7 +5076,7 @@
       <c r="BI28" s="57"/>
       <c r="BJ28" s="58"/>
     </row>
-    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>311</v>
       </c>
@@ -5115,8 +5115,8 @@
       <c r="AC29" s="72"/>
       <c r="AD29" s="54"/>
       <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="57"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
       <c r="AH29" s="58"/>
       <c r="AI29" s="71"/>
       <c r="AJ29" s="72"/>
@@ -5127,7 +5127,7 @@
       <c r="AO29" s="58"/>
       <c r="AP29" s="71"/>
       <c r="AQ29" s="72"/>
-      <c r="AR29" s="55"/>
+      <c r="AR29" s="87"/>
       <c r="AS29" s="55"/>
       <c r="AT29" s="56"/>
       <c r="AU29" s="57"/>
@@ -5147,7 +5147,7 @@
       <c r="BI29" s="57"/>
       <c r="BJ29" s="58"/>
     </row>
-    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>312</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="BI30" s="57"/>
       <c r="BJ30" s="58"/>
     </row>
-    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>40</v>
       </c>
@@ -5290,7 +5290,7 @@
       <c r="BI31" s="74"/>
       <c r="BJ31" s="78"/>
     </row>
-    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>401</v>
       </c>
@@ -5363,7 +5363,7 @@
       <c r="BI32" s="57"/>
       <c r="BJ32" s="58"/>
     </row>
-    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>402</v>
       </c>
@@ -5436,7 +5436,7 @@
       <c r="BI33" s="57"/>
       <c r="BJ33" s="58"/>
     </row>
-    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>403</v>
       </c>
@@ -5509,7 +5509,7 @@
       <c r="BI34" s="57"/>
       <c r="BJ34" s="58"/>
     </row>
-    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>404</v>
       </c>
@@ -5578,7 +5578,7 @@
       <c r="BI35" s="57"/>
       <c r="BJ35" s="58"/>
     </row>
-    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>50</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="BI36" s="74"/>
       <c r="BJ36" s="78"/>
     </row>
-    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>501</v>
       </c>
@@ -5725,7 +5725,7 @@
       <c r="BI37" s="57"/>
       <c r="BJ37" s="58"/>
     </row>
-    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>502</v>
       </c>
@@ -5794,7 +5794,7 @@
       <c r="BI38" s="57"/>
       <c r="BJ38" s="58"/>
     </row>
-    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>60</v>
       </c>
@@ -5868,7 +5868,7 @@
       <c r="BI39" s="74"/>
       <c r="BJ39" s="78"/>
     </row>
-    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>601</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="BI40" s="57"/>
       <c r="BJ40" s="58"/>
     </row>
-    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>602</v>
       </c>
@@ -6012,7 +6012,7 @@
       <c r="BI41" s="57"/>
       <c r="BJ41" s="58"/>
     </row>
-    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>603</v>
       </c>
@@ -6081,7 +6081,7 @@
       <c r="BI42" s="57"/>
       <c r="BJ42" s="58"/>
     </row>
-    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="35"/>
       <c r="B43" s="36" t="s">
         <v>6</v>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>44.5</v>
+        <v>36.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="R43" s="39">
         <f t="shared" si="3"/>
@@ -6356,17 +6356,17 @@
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="97" t="s">
         <v>13</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
@@ -6395,7 +6395,7 @@
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
@@ -6412,7 +6412,7 @@
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
@@ -6424,12 +6424,12 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>32.5</v>
+        <v>24.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="95" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="F6" s="81"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F7" s="81"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="F8" s="81"/>
     </row>
-    <row r="9" spans="1:6" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:B7"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt-BLJ\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E8C025-6724-41F1-A7E3-DDFCA9D76BD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9626B04B-88E3-4B7C-A9D0-8A8B2138F5B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1878,7 +1878,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.5</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2972,8 +2972,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>24.5</v>
+        <v>32.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52">
@@ -4503,7 +4503,9 @@
       <c r="Q21" s="63">
         <v>4</v>
       </c>
-      <c r="R21" s="63"/>
+      <c r="R21" s="63">
+        <v>4</v>
+      </c>
       <c r="S21" s="63"/>
       <c r="T21" s="58"/>
       <c r="U21" s="59"/>
@@ -4636,7 +4638,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="52">
@@ -4655,7 +4657,9 @@
       <c r="Q23" s="63">
         <v>4</v>
       </c>
-      <c r="R23" s="63"/>
+      <c r="R23" s="63">
+        <v>4</v>
+      </c>
       <c r="S23" s="63"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
@@ -6092,7 +6096,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>36.5</v>
+        <v>44.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -6142,7 +6146,7 @@
       </c>
       <c r="R43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S43" s="39">
         <f t="shared" si="3"/>
@@ -6424,7 +6428,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>24.5</v>
+        <v>32.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt-BLJ\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9626B04B-88E3-4B7C-A9D0-8A8B2138F5B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB4BCFF-1744-4B07-AE92-E12D7748DE14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1804,7 +1804,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
@@ -1878,7 +1878,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.5</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2972,8 +2972,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4247,11 +4247,11 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>32.5</v>
+        <v>40.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52">
@@ -4510,7 +4510,9 @@
       <c r="T21" s="58"/>
       <c r="U21" s="59"/>
       <c r="V21" s="60"/>
-      <c r="W21" s="63"/>
+      <c r="W21" s="63">
+        <v>4</v>
+      </c>
       <c r="X21" s="87"/>
       <c r="Y21" s="55"/>
       <c r="Z21" s="57"/>
@@ -4638,7 +4640,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="52">
@@ -4664,7 +4666,9 @@
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="63"/>
+      <c r="W23" s="63">
+        <v>4</v>
+      </c>
       <c r="X23" s="87"/>
       <c r="Y23" s="55"/>
       <c r="Z23" s="57"/>
@@ -4938,7 +4942,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" s="83">
         <f t="shared" si="0"/>
@@ -5013,7 +5017,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="83">
         <f t="shared" si="0"/>
@@ -6092,11 +6096,11 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>44.5</v>
+        <v>52.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -6166,7 +6170,7 @@
       </c>
       <c r="W43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
@@ -6424,11 +6428,11 @@
       <c r="B5" s="96"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>32.5</v>
+        <v>40.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt-BLJ\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB4BCFF-1744-4B07-AE92-E12D7748DE14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86197D46-93B0-4BB3-95F6-4074C1788AE8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1878,7 +1878,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.5</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2973,7 +2973,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>40.5</v>
+        <v>48.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52">
@@ -4513,7 +4513,9 @@
       <c r="W21" s="63">
         <v>4</v>
       </c>
-      <c r="X21" s="87"/>
+      <c r="X21" s="87">
+        <v>4</v>
+      </c>
       <c r="Y21" s="55"/>
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
@@ -4640,7 +4642,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="52">
@@ -4669,7 +4671,9 @@
       <c r="W23" s="63">
         <v>4</v>
       </c>
-      <c r="X23" s="87"/>
+      <c r="X23" s="87">
+        <v>4</v>
+      </c>
       <c r="Y23" s="55"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
@@ -6100,7 +6104,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>52.5</v>
+        <v>60.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -6174,7 +6178,7 @@
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
@@ -6432,7 +6436,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>40.5</v>
+        <v>48.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt-BLJ\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86197D46-93B0-4BB3-95F6-4074C1788AE8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D20D4B6-E12D-4ADA-B915-D9D80783EFCF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1878,7 +1878,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.5</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2973,7 +2973,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>48.5</v>
+        <v>56.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="52">
@@ -4591,7 +4591,9 @@
       <c r="V22" s="60"/>
       <c r="W22" s="63"/>
       <c r="X22" s="63"/>
-      <c r="Y22" s="87"/>
+      <c r="Y22" s="87">
+        <v>4</v>
+      </c>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
       <c r="AB22" s="59"/>
@@ -4725,7 +4727,7 @@
       </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="52">
@@ -4749,7 +4751,9 @@
       <c r="V24" s="60"/>
       <c r="W24" s="63"/>
       <c r="X24" s="63"/>
-      <c r="Y24" s="87"/>
+      <c r="Y24" s="87">
+        <v>4</v>
+      </c>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
       <c r="AB24" s="59"/>
@@ -6104,7 +6108,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>60.5</v>
+        <v>68.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -6182,7 +6186,7 @@
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z43" s="39">
         <f t="shared" si="3"/>
@@ -6436,7 +6440,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>48.5</v>
+        <v>56.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt-BLJ\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D20D4B6-E12D-4ADA-B915-D9D80783EFCF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA9C37-9CF9-4305-8334-F12C60A12853}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1878,7 +1878,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.5</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2972,8 +2972,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AT13" sqref="AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>56.5</v>
+        <v>72.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52">
@@ -4535,8 +4535,12 @@
       <c r="AO21" s="58"/>
       <c r="AP21" s="59"/>
       <c r="AQ21" s="60"/>
-      <c r="AR21" s="55"/>
-      <c r="AS21" s="55"/>
+      <c r="AR21" s="55">
+        <v>2</v>
+      </c>
+      <c r="AS21" s="55">
+        <v>2</v>
+      </c>
       <c r="AT21" s="56"/>
       <c r="AU21" s="57"/>
       <c r="AV21" s="58"/>
@@ -4567,7 +4571,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="52">
@@ -4612,8 +4616,12 @@
       <c r="AO22" s="58"/>
       <c r="AP22" s="59"/>
       <c r="AQ22" s="60"/>
-      <c r="AR22" s="55"/>
-      <c r="AS22" s="55"/>
+      <c r="AR22" s="55">
+        <v>2</v>
+      </c>
+      <c r="AS22" s="55">
+        <v>2</v>
+      </c>
       <c r="AT22" s="56"/>
       <c r="AU22" s="57"/>
       <c r="AV22" s="58"/>
@@ -4644,7 +4652,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="52">
@@ -4695,8 +4703,12 @@
       <c r="AO23" s="58"/>
       <c r="AP23" s="59"/>
       <c r="AQ23" s="60"/>
-      <c r="AR23" s="61"/>
-      <c r="AS23" s="61"/>
+      <c r="AR23" s="61">
+        <v>2</v>
+      </c>
+      <c r="AS23" s="61">
+        <v>2</v>
+      </c>
       <c r="AT23" s="56"/>
       <c r="AU23" s="57"/>
       <c r="AV23" s="58"/>
@@ -4727,7 +4739,7 @@
       </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="52">
@@ -4772,8 +4784,12 @@
       <c r="AO24" s="58"/>
       <c r="AP24" s="59"/>
       <c r="AQ24" s="60"/>
-      <c r="AR24" s="55"/>
-      <c r="AS24" s="55"/>
+      <c r="AR24" s="55">
+        <v>2</v>
+      </c>
+      <c r="AS24" s="55">
+        <v>2</v>
+      </c>
       <c r="AT24" s="56"/>
       <c r="AU24" s="57"/>
       <c r="AV24" s="58"/>
@@ -6108,7 +6124,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>68.5</v>
+        <v>84.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -6262,11 +6278,11 @@
       </c>
       <c r="AR43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT43" s="39">
         <f t="shared" si="4"/>
@@ -6440,7 +6456,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>56.5</v>
+        <v>72.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt-BLJ\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA9C37-9CF9-4305-8334-F12C60A12853}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BE6222-7E20-4F73-88C0-261C79C9B1AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="8" r:id="rId1"/>
@@ -1878,16 +1878,16 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.5</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2582,16 +2582,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>916078</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19608</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>459442</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>69476</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2972,8 +2972,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AT13" sqref="AT13"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AX36" sqref="AX36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>72.5</v>
+        <v>76.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52">
@@ -4541,7 +4541,9 @@
       <c r="AS21" s="55">
         <v>2</v>
       </c>
-      <c r="AT21" s="56"/>
+      <c r="AT21" s="56">
+        <v>1</v>
+      </c>
       <c r="AU21" s="57"/>
       <c r="AV21" s="58"/>
       <c r="AW21" s="59"/>
@@ -4571,7 +4573,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="52">
@@ -4622,7 +4624,9 @@
       <c r="AS22" s="55">
         <v>2</v>
       </c>
-      <c r="AT22" s="56"/>
+      <c r="AT22" s="56">
+        <v>1</v>
+      </c>
       <c r="AU22" s="57"/>
       <c r="AV22" s="58"/>
       <c r="AW22" s="59"/>
@@ -4652,7 +4656,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="52">
@@ -4709,7 +4713,9 @@
       <c r="AS23" s="61">
         <v>2</v>
       </c>
-      <c r="AT23" s="56"/>
+      <c r="AT23" s="56">
+        <v>1</v>
+      </c>
       <c r="AU23" s="57"/>
       <c r="AV23" s="58"/>
       <c r="AW23" s="59"/>
@@ -4739,7 +4745,7 @@
       </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="52">
@@ -4790,7 +4796,9 @@
       <c r="AS24" s="55">
         <v>2</v>
       </c>
-      <c r="AT24" s="56"/>
+      <c r="AT24" s="56">
+        <v>1</v>
+      </c>
       <c r="AU24" s="57"/>
       <c r="AV24" s="58"/>
       <c r="AW24" s="59"/>
@@ -5261,7 +5269,7 @@
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="31"/>
@@ -5407,7 +5415,7 @@
       </c>
       <c r="D33" s="83">
         <f t="shared" ref="D33:D35" si="1">SUM(G33:BJ33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="52"/>
@@ -5450,7 +5458,9 @@
       <c r="AQ33" s="60"/>
       <c r="AR33" s="63"/>
       <c r="AS33" s="56"/>
-      <c r="AT33" s="56"/>
+      <c r="AT33" s="56">
+        <v>1</v>
+      </c>
       <c r="AU33" s="57"/>
       <c r="AV33" s="58"/>
       <c r="AW33" s="59"/>
@@ -5480,7 +5490,7 @@
       </c>
       <c r="D34" s="83">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="52"/>
@@ -5523,7 +5533,9 @@
       <c r="AQ34" s="60"/>
       <c r="AR34" s="63"/>
       <c r="AS34" s="56"/>
-      <c r="AT34" s="56"/>
+      <c r="AT34" s="56">
+        <v>2</v>
+      </c>
       <c r="AU34" s="57"/>
       <c r="AV34" s="58"/>
       <c r="AW34" s="59"/>
@@ -5839,7 +5851,7 @@
       </c>
       <c r="D39" s="42">
         <f>SUM(D40:D42)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="31"/>
@@ -5983,7 +5995,7 @@
       <c r="C41" s="49"/>
       <c r="D41" s="83">
         <f t="shared" ref="D41:D42" si="2">SUM(G41:BJ41)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E41" s="50"/>
       <c r="F41" s="51"/>
@@ -6026,7 +6038,9 @@
       <c r="AQ41" s="60"/>
       <c r="AR41" s="55"/>
       <c r="AS41" s="63"/>
-      <c r="AT41" s="56"/>
+      <c r="AT41" s="56">
+        <v>0.5</v>
+      </c>
       <c r="AU41" s="57"/>
       <c r="AV41" s="58"/>
       <c r="AW41" s="59"/>
@@ -6124,7 +6138,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>84.5</v>
+        <v>92</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -6286,7 +6300,7 @@
       </c>
       <c r="AT43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AU43" s="39">
         <f t="shared" si="4"/>
@@ -6384,8 +6398,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6456,7 +6470,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>72.5</v>
+        <v>76.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
@@ -6473,7 +6487,7 @@
       </c>
       <c r="D6" s="80">
         <f>Zeitplanung!D31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="81"/>
     </row>
@@ -6505,7 +6519,7 @@
       </c>
       <c r="D8" s="80">
         <f>Zeitplanung!D39</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="81"/>
     </row>
@@ -6521,7 +6535,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>